--- a/利润表/688618.xlsx
+++ b/利润表/688618.xlsx
@@ -677,7 +677,11 @@
           <t>688618</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>016015</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>10000077735</t>
@@ -688,7 +692,11 @@
           <t>三旺通信</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>通讯行业</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>kcb</t>
@@ -726,43 +734,47 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2019-09-30 00:00:00</t>
+          <t>2020-09-30 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>39125971.31</v>
+        <v>48327157.44</v>
       </c>
       <c r="P2" t="n">
-        <v>116372000.09</v>
+        <v>143660466.28</v>
       </c>
       <c r="Q2" t="n">
-        <v>83582299.45</v>
-      </c>
-      <c r="R2" t="inlineStr"/>
+        <v>99211494.84</v>
+      </c>
+      <c r="R2" t="n">
+        <v>18.6991689542</v>
+      </c>
       <c r="S2" t="n">
-        <v>39658559.47</v>
+        <v>48862997.31</v>
       </c>
       <c r="T2" t="n">
-        <v>39658559.47</v>
-      </c>
-      <c r="U2" t="inlineStr"/>
+        <v>48862997.31</v>
+      </c>
+      <c r="U2" t="n">
+        <v>23.2092087131</v>
+      </c>
       <c r="V2" t="n">
-        <v>19457165.66</v>
+        <v>20147121.65</v>
       </c>
       <c r="W2" t="n">
-        <v>4013548.96</v>
+        <v>4975434.2</v>
       </c>
       <c r="X2" t="n">
-        <v>-46941.08</v>
+        <v>136615.98</v>
       </c>
       <c r="Y2" t="n">
-        <v>42032547.07</v>
+        <v>51977455.4</v>
       </c>
       <c r="Z2" t="n">
-        <v>42035883.92</v>
+        <v>52025888.87</v>
       </c>
       <c r="AA2" t="n">
-        <v>2909912.61</v>
+        <v>3698731.43</v>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
@@ -770,7 +782,7 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="n">
-        <v>1132332.55</v>
+        <v>1229515.55</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
@@ -780,13 +792,21 @@
       <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="inlineStr"/>
-      <c r="AR2" t="inlineStr"/>
+      <c r="AP2" t="n">
+        <v>23.4493401926</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>23.66001830305</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>23.52</v>
+      </c>
       <c r="AS2" t="n">
-        <v>36493388.07</v>
-      </c>
-      <c r="AT2" t="inlineStr"/>
+        <v>44735959.58</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>22.586589971283</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/利润表/688618.xlsx
+++ b/利润表/688618.xlsx
@@ -714,7 +714,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>004</t>
+          <t>002</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -729,52 +729,48 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2020-12-11 00:00:00</t>
+          <t>2020-12-25 00:00:00</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2020-09-30 00:00:00</t>
+          <t>2020-06-30 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>48327157.44</v>
+        <v>29031605.41</v>
       </c>
       <c r="P2" t="n">
-        <v>143660466.28</v>
+        <v>85277244.67</v>
       </c>
       <c r="Q2" t="n">
-        <v>99211494.84</v>
-      </c>
-      <c r="R2" t="n">
-        <v>18.6991689542</v>
-      </c>
+        <v>58580019.85</v>
+      </c>
+      <c r="R2" t="inlineStr"/>
       <c r="S2" t="n">
-        <v>48862997.31</v>
+        <v>28491251.82</v>
       </c>
       <c r="T2" t="n">
-        <v>48862997.31</v>
-      </c>
-      <c r="U2" t="n">
-        <v>23.2092087131</v>
-      </c>
+        <v>28491251.82</v>
+      </c>
+      <c r="U2" t="inlineStr"/>
       <c r="V2" t="n">
-        <v>20147121.65</v>
+        <v>12531125.61</v>
       </c>
       <c r="W2" t="n">
-        <v>4975434.2</v>
+        <v>3067921.01</v>
       </c>
       <c r="X2" t="n">
-        <v>136615.98</v>
+        <v>-222980.56</v>
       </c>
       <c r="Y2" t="n">
-        <v>51977455.4</v>
+        <v>31230723.1</v>
       </c>
       <c r="Z2" t="n">
-        <v>52025888.87</v>
+        <v>31266197.53</v>
       </c>
       <c r="AA2" t="n">
-        <v>3698731.43</v>
+        <v>2234592.12</v>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
@@ -782,7 +778,7 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="n">
-        <v>1229515.55</v>
+        <v>728599.4399999999</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
@@ -792,21 +788,13 @@
       <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="n">
-        <v>23.4493401926</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>23.66001830305</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>23.52</v>
-      </c>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr"/>
+      <c r="AR2" t="inlineStr"/>
       <c r="AS2" t="n">
-        <v>44735959.58</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>22.586589971283</v>
-      </c>
+        <v>25821415.62</v>
+      </c>
+      <c r="AT2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/利润表/688618.xlsx
+++ b/利润表/688618.xlsx
@@ -714,7 +714,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>002</t>
+          <t>001</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -734,43 +734,47 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2020-06-30 00:00:00</t>
+          <t>2019-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>29031605.41</v>
+        <v>57989273.63</v>
       </c>
       <c r="P2" t="n">
-        <v>85277244.67</v>
+        <v>172467827.82</v>
       </c>
       <c r="Q2" t="n">
-        <v>58580019.85</v>
-      </c>
-      <c r="R2" t="inlineStr"/>
+        <v>122038275.78</v>
+      </c>
+      <c r="R2" t="n">
+        <v>18.2949211993</v>
+      </c>
       <c r="S2" t="n">
-        <v>28491251.82</v>
+        <v>57790619.69</v>
       </c>
       <c r="T2" t="n">
-        <v>28491251.82</v>
-      </c>
-      <c r="U2" t="inlineStr"/>
+        <v>57790619.69</v>
+      </c>
+      <c r="U2" t="n">
+        <v>13.3342526808</v>
+      </c>
       <c r="V2" t="n">
-        <v>12531125.61</v>
+        <v>29080985.14</v>
       </c>
       <c r="W2" t="n">
-        <v>3067921.01</v>
+        <v>5745406.17</v>
       </c>
       <c r="X2" t="n">
-        <v>-222980.56</v>
+        <v>-287735.06</v>
       </c>
       <c r="Y2" t="n">
-        <v>31230723.1</v>
+        <v>62504171.59</v>
       </c>
       <c r="Z2" t="n">
-        <v>31266197.53</v>
+        <v>62508389.64</v>
       </c>
       <c r="AA2" t="n">
-        <v>2234592.12</v>
+        <v>4519116.01</v>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
@@ -778,7 +782,7 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="n">
-        <v>728599.4399999999</v>
+        <v>1837821.37</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
@@ -788,13 +792,21 @@
       <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="inlineStr"/>
-      <c r="AR2" t="inlineStr"/>
+      <c r="AP2" t="n">
+        <v>17.3241604531</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>11.377811589009</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>12.864376015857</v>
+      </c>
       <c r="AS2" t="n">
-        <v>25821415.62</v>
-      </c>
-      <c r="AT2" t="inlineStr"/>
+        <v>54166972.92</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>11.304243790688</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/利润表/688618.xlsx
+++ b/利润表/688618.xlsx
@@ -734,47 +734,43 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2019-12-31 00:00:00</t>
+          <t>2017-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>57989273.63</v>
+        <v>27549269.41</v>
       </c>
       <c r="P2" t="n">
-        <v>172467827.82</v>
+        <v>112503728.31</v>
       </c>
       <c r="Q2" t="n">
-        <v>122038275.78</v>
-      </c>
-      <c r="R2" t="n">
-        <v>18.2949211993</v>
-      </c>
+        <v>86828305.90000001</v>
+      </c>
+      <c r="R2" t="inlineStr"/>
       <c r="S2" t="n">
-        <v>57790619.69</v>
+        <v>37332535.67</v>
       </c>
       <c r="T2" t="n">
-        <v>57790619.69</v>
-      </c>
-      <c r="U2" t="n">
-        <v>13.3342526808</v>
-      </c>
+        <v>37332535.67</v>
+      </c>
+      <c r="U2" t="inlineStr"/>
       <c r="V2" t="n">
-        <v>29080985.14</v>
+        <v>19081541.51</v>
       </c>
       <c r="W2" t="n">
-        <v>5745406.17</v>
+        <v>12392250.49</v>
       </c>
       <c r="X2" t="n">
-        <v>-287735.06</v>
+        <v>10654.38</v>
       </c>
       <c r="Y2" t="n">
-        <v>62504171.59</v>
+        <v>32136484.1</v>
       </c>
       <c r="Z2" t="n">
-        <v>62508389.64</v>
+        <v>31996242.32</v>
       </c>
       <c r="AA2" t="n">
-        <v>4519116.01</v>
+        <v>4446972.91</v>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
@@ -782,7 +778,7 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="n">
-        <v>1837821.37</v>
+        <v>1655553.86</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
@@ -792,21 +788,13 @@
       <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="n">
-        <v>17.3241604531</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>11.377811589009</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>12.864376015857</v>
-      </c>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr"/>
+      <c r="AR2" t="inlineStr"/>
       <c r="AS2" t="n">
-        <v>54166972.92</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>11.304243790688</v>
-      </c>
+        <v>33357626.81</v>
+      </c>
+      <c r="AT2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/利润表/688618.xlsx
+++ b/利润表/688618.xlsx
@@ -734,43 +734,47 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2017-12-31 00:00:00</t>
+          <t>2019-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>27549269.41</v>
+        <v>57989273.63</v>
       </c>
       <c r="P2" t="n">
-        <v>112503728.31</v>
+        <v>172467827.82</v>
       </c>
       <c r="Q2" t="n">
-        <v>86828305.90000001</v>
-      </c>
-      <c r="R2" t="inlineStr"/>
+        <v>122038275.78</v>
+      </c>
+      <c r="R2" t="n">
+        <v>18.2949211993</v>
+      </c>
       <c r="S2" t="n">
-        <v>37332535.67</v>
+        <v>57790619.69</v>
       </c>
       <c r="T2" t="n">
-        <v>37332535.67</v>
-      </c>
-      <c r="U2" t="inlineStr"/>
+        <v>57790619.69</v>
+      </c>
+      <c r="U2" t="n">
+        <v>13.3342526808</v>
+      </c>
       <c r="V2" t="n">
-        <v>19081541.51</v>
+        <v>29080985.14</v>
       </c>
       <c r="W2" t="n">
-        <v>12392250.49</v>
+        <v>5745406.17</v>
       </c>
       <c r="X2" t="n">
-        <v>10654.38</v>
+        <v>-287735.06</v>
       </c>
       <c r="Y2" t="n">
-        <v>32136484.1</v>
+        <v>62504171.59</v>
       </c>
       <c r="Z2" t="n">
-        <v>31996242.32</v>
+        <v>62508389.64</v>
       </c>
       <c r="AA2" t="n">
-        <v>4446972.91</v>
+        <v>4519116.01</v>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
@@ -778,7 +782,7 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="n">
-        <v>1655553.86</v>
+        <v>1837821.37</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
@@ -788,13 +792,21 @@
       <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="inlineStr"/>
-      <c r="AR2" t="inlineStr"/>
+      <c r="AP2" t="n">
+        <v>17.3241604531</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>11.377811589009</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>12.864376015857</v>
+      </c>
       <c r="AS2" t="n">
-        <v>33357626.81</v>
-      </c>
-      <c r="AT2" t="inlineStr"/>
+        <v>54166972.92</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>11.304243790688</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
